--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D0444-C7EE-41AD-AA88-1F16ACCDEAFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CDA39A-F597-4653-8B5F-E0E4A30C3B43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="264" windowWidth="16224" windowHeight="11388" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
+    <workbookView xWindow="60" yWindow="30" windowWidth="29970" windowHeight="20850" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="112">
   <si>
     <t>1st node to die</t>
   </si>
@@ -226,6 +226,147 @@
   </si>
   <si>
     <t>5105/7544</t>
+  </si>
+  <si>
+    <t>0.6306</t>
+  </si>
+  <si>
+    <t>0.6198</t>
+  </si>
+  <si>
+    <t>3.4865</t>
+  </si>
+  <si>
+    <t>3644/9677</t>
+  </si>
+  <si>
+    <t>2.2016</t>
+  </si>
+  <si>
+    <t>4986/7513</t>
+  </si>
+  <si>
+    <t>0.6301</t>
+  </si>
+  <si>
+    <t>0.6103</t>
+  </si>
+  <si>
+    <t>3.3995</t>
+  </si>
+  <si>
+    <t>3197/9729</t>
+  </si>
+  <si>
+    <t>2.1420</t>
+  </si>
+  <si>
+    <t>5451/7562</t>
+  </si>
+  <si>
+    <t>0.6353</t>
+  </si>
+  <si>
+    <t>0.6136</t>
+  </si>
+  <si>
+    <t>3.5530</t>
+  </si>
+  <si>
+    <t>4106/10313</t>
+  </si>
+  <si>
+    <t>2.2573</t>
+  </si>
+  <si>
+    <t>5545/7705</t>
+  </si>
+  <si>
+    <t>0.6187</t>
+  </si>
+  <si>
+    <t>0.6499</t>
+  </si>
+  <si>
+    <t>3.4201</t>
+  </si>
+  <si>
+    <t>3781/10292</t>
+  </si>
+  <si>
+    <t>2.2229</t>
+  </si>
+  <si>
+    <t>5645/7793</t>
+  </si>
+  <si>
+    <t>0.6238</t>
+  </si>
+  <si>
+    <t>0.6137</t>
+  </si>
+  <si>
+    <t>3.5259</t>
+  </si>
+  <si>
+    <t>3673/10201</t>
+  </si>
+  <si>
+    <t>2.1994</t>
+  </si>
+  <si>
+    <t>5262/7865</t>
+  </si>
+  <si>
+    <t>0.6323</t>
+  </si>
+  <si>
+    <t>0.6163</t>
+  </si>
+  <si>
+    <t>3.5305</t>
+  </si>
+  <si>
+    <t>3979/9645</t>
+  </si>
+  <si>
+    <t>2.2323</t>
+  </si>
+  <si>
+    <t>5387/7698</t>
+  </si>
+  <si>
+    <t>0.6346</t>
+  </si>
+  <si>
+    <t>3.6843</t>
+  </si>
+  <si>
+    <t>3578/10046</t>
+  </si>
+  <si>
+    <t>2.3382</t>
+  </si>
+  <si>
+    <t>5171/8069</t>
+  </si>
+  <si>
+    <t>0.6580</t>
+  </si>
+  <si>
+    <t>0.6233</t>
+  </si>
+  <si>
+    <t>3.0607</t>
+  </si>
+  <si>
+    <t>2869/10070</t>
+  </si>
+  <si>
+    <t>2.0140</t>
+  </si>
+  <si>
+    <t>4858/7471</t>
   </si>
 </sst>
 </file>
@@ -631,28 +772,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F81F446-6DC3-46CC-8BCE-CAAA015CE594}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -704,7 +845,7 @@
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -712,7 +853,7 @@
       <c r="F3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -750,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -788,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -826,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -864,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -902,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -940,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -978,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -1016,16 +1157,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>23637000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6">
+        <v>147</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7076</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="6">
         <v>8</v>
       </c>
@@ -1039,17 +1195,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="7">
+        <v>23607000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="6">
+        <v>144</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7286</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
@@ -1063,17 +1233,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="7">
+        <v>25561000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="6">
+        <v>157</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7462</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="J15" s="6">
         <v>8</v>
       </c>
@@ -1087,16 +1271,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <v>24703000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7">
+        <v>153</v>
+      </c>
+      <c r="H16" s="6">
+        <v>7505</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="J16" s="6">
         <v>8</v>
       </c>
@@ -1110,16 +1309,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>24577000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7">
+        <v>151</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7236</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="J17" s="6">
         <v>8</v>
       </c>
@@ -1133,16 +1347,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>24639000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="6">
+        <v>152</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7300</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="6">
         <v>8</v>
       </c>
@@ -1156,16 +1385,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>26557000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7">
+        <v>164</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7476</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="J19" s="6">
         <v>8</v>
       </c>
@@ -1179,17 +1423,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="6">
+        <v>21680000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7">
+        <v>135</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7331</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="J20" s="6">
         <v>8</v>
       </c>
@@ -1203,14 +1461,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -1234,7 +1492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -1258,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -1282,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -1306,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -1330,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -1354,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -1378,7 +1636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -1402,12 +1660,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="J30" s="6"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>25</v>
       </c>
@@ -1431,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>26</v>
       </c>
@@ -1455,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>27</v>
       </c>
@@ -1479,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>28</v>
       </c>
@@ -1503,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>29</v>
       </c>
@@ -1527,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>30</v>
       </c>
@@ -1551,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>31</v>
       </c>
@@ -1575,7 +1833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>32</v>
       </c>
@@ -1599,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
@@ -1608,7 +1866,7 @@
       <c r="J39" s="6"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>33</v>
       </c>
@@ -1632,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>34</v>
       </c>
@@ -1656,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <v>35</v>
       </c>
@@ -1680,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>36</v>
       </c>
@@ -1704,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>37</v>
       </c>
@@ -1728,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>38</v>
       </c>
@@ -1752,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>39</v>
       </c>
@@ -1776,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>40</v>
       </c>
@@ -1800,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="E48" s="7"/>
       <c r="F48" s="6"/>
@@ -1809,7 +2067,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1818,7 +2076,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>1</v>
       </c>
@@ -1850,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -1879,7 +2137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>3</v>
       </c>
@@ -1908,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>4</v>
       </c>
@@ -1937,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -1966,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>6</v>
       </c>
@@ -1995,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>7</v>
       </c>
@@ -2024,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>8</v>
       </c>
@@ -2053,17 +2311,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>9</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="7"/>
-      <c r="I59" s="3"/>
+      <c r="E59" s="7">
+        <v>14700000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7">
+        <v>147</v>
+      </c>
+      <c r="H59">
+        <v>6669</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="K59" t="s">
         <v>14</v>
       </c>
@@ -2074,13 +2343,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="3"/>
+      <c r="E60">
+        <v>14400000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="7">
+        <v>144</v>
+      </c>
+      <c r="H60">
+        <v>6717</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="K60" t="s">
         <v>14</v>
       </c>
@@ -2091,13 +2372,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
-      <c r="I61" s="3"/>
+      <c r="E61">
+        <v>15700000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="7">
+        <v>157</v>
+      </c>
+      <c r="H61">
+        <v>6942</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="K61" t="s">
         <v>14</v>
       </c>
@@ -2108,13 +2401,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>12</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="7"/>
-      <c r="I62" s="3"/>
+      <c r="E62">
+        <v>15300000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="7">
+        <v>153</v>
+      </c>
+      <c r="H62">
+        <v>6871</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="K62" t="s">
         <v>14</v>
       </c>
@@ -2125,13 +2430,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>13</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
-      <c r="I63" s="3"/>
+      <c r="E63">
+        <v>15100000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="7">
+        <v>151</v>
+      </c>
+      <c r="H63">
+        <v>6863</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="K63" t="s">
         <v>14</v>
       </c>
@@ -2142,13 +2459,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>14</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="7"/>
-      <c r="I64" s="3"/>
+      <c r="E64">
+        <v>15200000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="7">
+        <v>152</v>
+      </c>
+      <c r="H64">
+        <v>6799</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="K64" t="s">
         <v>14</v>
       </c>
@@ -2159,13 +2488,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>15</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="7"/>
-      <c r="I65" s="3"/>
+      <c r="E65">
+        <v>16400000</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="7">
+        <v>164</v>
+      </c>
+      <c r="H65">
+        <v>7016</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="K65" t="s">
         <v>14</v>
       </c>
@@ -2176,13 +2517,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>16</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="I66" s="3"/>
+      <c r="E66">
+        <v>13500000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="7">
+        <v>135</v>
+      </c>
+      <c r="H66">
+        <v>6695</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="K66" t="s">
         <v>14</v>
       </c>
@@ -2193,13 +2546,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="F67" s="3"/>
       <c r="G67" s="7"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>17</v>
       </c>
@@ -2216,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>18</v>
       </c>
@@ -2233,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>19</v>
       </c>
@@ -2250,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>20</v>
       </c>
@@ -2267,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>21</v>
       </c>
@@ -2284,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>22</v>
       </c>
@@ -2301,7 +2654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>23</v>
       </c>
@@ -2318,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>24</v>
       </c>
@@ -2335,14 +2688,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="F76" s="3"/>
       <c r="G76" s="7"/>
       <c r="I76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
         <v>25</v>
       </c>
@@ -2359,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
         <v>26</v>
       </c>
@@ -2377,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
         <v>27</v>
       </c>
@@ -2395,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <v>28</v>
       </c>
@@ -2413,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <v>29</v>
       </c>
@@ -2431,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <v>30</v>
       </c>
@@ -2449,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
         <v>31</v>
       </c>
@@ -2467,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
         <v>32</v>
       </c>
@@ -2485,14 +2838,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="D85" s="5"/>
       <c r="F85" s="3"/>
       <c r="G85" s="7"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
         <v>33</v>
       </c>
@@ -2510,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
         <v>34</v>
       </c>
@@ -2528,7 +2881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
         <v>35</v>
       </c>
@@ -2546,7 +2899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
         <v>36</v>
       </c>
@@ -2564,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
         <v>37</v>
       </c>
@@ -2582,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="5">
         <v>38</v>
       </c>
@@ -2600,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="5">
         <v>39</v>
       </c>
@@ -2618,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="5">
         <v>40</v>
       </c>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CDA39A-F597-4653-8B5F-E0E4A30C3B43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7277C0F3-B288-48E0-9860-32DCE06924F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="30" windowWidth="29970" windowHeight="20850" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="16224" windowHeight="11388" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="248">
   <si>
     <t>1st node to die</t>
   </si>
@@ -367,6 +367,414 @@
   </si>
   <si>
     <t>4858/7471</t>
+  </si>
+  <si>
+    <t>0.6328</t>
+  </si>
+  <si>
+    <t>3.4606</t>
+  </si>
+  <si>
+    <t>4085/9790</t>
+  </si>
+  <si>
+    <t>2.1899</t>
+  </si>
+  <si>
+    <t>0.5798</t>
+  </si>
+  <si>
+    <t>0.6125</t>
+  </si>
+  <si>
+    <t>2.1567</t>
+  </si>
+  <si>
+    <t>2386/9551</t>
+  </si>
+  <si>
+    <t>5938/7809</t>
+  </si>
+  <si>
+    <t>1.2504</t>
+  </si>
+  <si>
+    <t>5176/7383</t>
+  </si>
+  <si>
+    <t>0.6177</t>
+  </si>
+  <si>
+    <t>0.6172</t>
+  </si>
+  <si>
+    <t>2.9128</t>
+  </si>
+  <si>
+    <t>3436/9879</t>
+  </si>
+  <si>
+    <t>1.7992</t>
+  </si>
+  <si>
+    <t>0.6457</t>
+  </si>
+  <si>
+    <t>0.6201</t>
+  </si>
+  <si>
+    <t>3.6479</t>
+  </si>
+  <si>
+    <t>3739/10402</t>
+  </si>
+  <si>
+    <t>2.3553</t>
+  </si>
+  <si>
+    <t>6134/8143</t>
+  </si>
+  <si>
+    <t>0.6537</t>
+  </si>
+  <si>
+    <t>0.6241</t>
+  </si>
+  <si>
+    <t>3.4877</t>
+  </si>
+  <si>
+    <t>4053/10793</t>
+  </si>
+  <si>
+    <t>2.2799</t>
+  </si>
+  <si>
+    <t>5082/7678</t>
+  </si>
+  <si>
+    <t>0.6132</t>
+  </si>
+  <si>
+    <t>0.6188</t>
+  </si>
+  <si>
+    <t>3.4329</t>
+  </si>
+  <si>
+    <t>2558/7632</t>
+  </si>
+  <si>
+    <t>2.1050</t>
+  </si>
+  <si>
+    <t>5039/7632</t>
+  </si>
+  <si>
+    <t>0.6397</t>
+  </si>
+  <si>
+    <t>3.8148</t>
+  </si>
+  <si>
+    <t>3664/10095</t>
+  </si>
+  <si>
+    <t>2.4403</t>
+  </si>
+  <si>
+    <t>5496/7742</t>
+  </si>
+  <si>
+    <t>0.5956</t>
+  </si>
+  <si>
+    <t>0.6074</t>
+  </si>
+  <si>
+    <t>3.3161</t>
+  </si>
+  <si>
+    <t>3148/9637</t>
+  </si>
+  <si>
+    <t>1.9750</t>
+  </si>
+  <si>
+    <t>5122/7470</t>
+  </si>
+  <si>
+    <t>0.6451</t>
+  </si>
+  <si>
+    <t>0.6185</t>
+  </si>
+  <si>
+    <t>2.9848</t>
+  </si>
+  <si>
+    <t>3905/9675</t>
+  </si>
+  <si>
+    <t>1.9256</t>
+  </si>
+  <si>
+    <t>5438/7629</t>
+  </si>
+  <si>
+    <t>0.6390</t>
+  </si>
+  <si>
+    <t>0.6214</t>
+  </si>
+  <si>
+    <t>2.8594</t>
+  </si>
+  <si>
+    <t>2979/10279</t>
+  </si>
+  <si>
+    <t>1.8270</t>
+  </si>
+  <si>
+    <t>5083/7550</t>
+  </si>
+  <si>
+    <t>0.6224</t>
+  </si>
+  <si>
+    <t>0.6196</t>
+  </si>
+  <si>
+    <t>3.3887</t>
+  </si>
+  <si>
+    <t>2681/9953</t>
+  </si>
+  <si>
+    <t>2.1090</t>
+  </si>
+  <si>
+    <t>5476/7835</t>
+  </si>
+  <si>
+    <t>0.6661</t>
+  </si>
+  <si>
+    <t>0.6210</t>
+  </si>
+  <si>
+    <t>3.6014</t>
+  </si>
+  <si>
+    <t>3779/9869</t>
+  </si>
+  <si>
+    <t>2.3990</t>
+  </si>
+  <si>
+    <t>5661/7781</t>
+  </si>
+  <si>
+    <t>0.6217</t>
+  </si>
+  <si>
+    <t>2.8875</t>
+  </si>
+  <si>
+    <t>3730/9681</t>
+  </si>
+  <si>
+    <t>1.8767</t>
+  </si>
+  <si>
+    <t>5506/7570</t>
+  </si>
+  <si>
+    <t>0.6767</t>
+  </si>
+  <si>
+    <t>3.6691</t>
+  </si>
+  <si>
+    <t>4288/10257</t>
+  </si>
+  <si>
+    <t>2.4828</t>
+  </si>
+  <si>
+    <t>5389/8012</t>
+  </si>
+  <si>
+    <t>0.6446</t>
+  </si>
+  <si>
+    <t>0.6223</t>
+  </si>
+  <si>
+    <t>3.5015</t>
+  </si>
+  <si>
+    <t>3824/9877</t>
+  </si>
+  <si>
+    <t>2.2571</t>
+  </si>
+  <si>
+    <t>5741/7686</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6169</t>
+  </si>
+  <si>
+    <t>0.6122</t>
+  </si>
+  <si>
+    <t>2.6587</t>
+  </si>
+  <si>
+    <t>2682/9513</t>
+  </si>
+  <si>
+    <t>1.6402</t>
+  </si>
+  <si>
+    <t>5376/7500</t>
+  </si>
+  <si>
+    <t>0.5626</t>
+  </si>
+  <si>
+    <t>0.6013</t>
+  </si>
+  <si>
+    <t>3.6650</t>
+  </si>
+  <si>
+    <t>3476/9391</t>
+  </si>
+  <si>
+    <t>2.0618</t>
+  </si>
+  <si>
+    <t>5560/7717</t>
+  </si>
+  <si>
+    <t>0.5817</t>
+  </si>
+  <si>
+    <t>3.0014</t>
+  </si>
+  <si>
+    <t>2561/9762</t>
+  </si>
+  <si>
+    <t>1.7460</t>
+  </si>
+  <si>
+    <t>5671/7822</t>
+  </si>
+  <si>
+    <t>0.6183</t>
+  </si>
+  <si>
+    <t>0.5510</t>
+  </si>
+  <si>
+    <t>3.2468</t>
+  </si>
+  <si>
+    <t>3476/9135</t>
+  </si>
+  <si>
+    <t>1.7889</t>
+  </si>
+  <si>
+    <t>5493/7531</t>
+  </si>
+  <si>
+    <t>0.5422</t>
+  </si>
+  <si>
+    <t>0.5978</t>
+  </si>
+  <si>
+    <t>2.4170</t>
+  </si>
+  <si>
+    <t>3462/9710</t>
+  </si>
+  <si>
+    <t>1.3106</t>
+  </si>
+  <si>
+    <t>5710/7765</t>
+  </si>
+  <si>
+    <t>0.5980</t>
+  </si>
+  <si>
+    <t>0.6148</t>
+  </si>
+  <si>
+    <t>3.0691</t>
+  </si>
+  <si>
+    <t>3489/9557</t>
+  </si>
+  <si>
+    <t>1.8354</t>
+  </si>
+  <si>
+    <t>5258/7784</t>
+  </si>
+  <si>
+    <t>0.5880</t>
+  </si>
+  <si>
+    <t>0.6284</t>
+  </si>
+  <si>
+    <t>3.1065</t>
+  </si>
+  <si>
+    <t>3281/9128</t>
+  </si>
+  <si>
+    <t>1.8266</t>
+  </si>
+  <si>
+    <t>5467/7703</t>
+  </si>
+  <si>
+    <t>0.5427</t>
+  </si>
+  <si>
+    <t>2.4474</t>
+  </si>
+  <si>
+    <t>3134/8882</t>
+  </si>
+  <si>
+    <t>1.3281</t>
+  </si>
+  <si>
+    <t>4921/7680</t>
+  </si>
+  <si>
+    <t>0.4933</t>
+  </si>
+  <si>
+    <t>0.5855</t>
+  </si>
+  <si>
+    <t>1.8974</t>
+  </si>
+  <si>
+    <t>2721/8866</t>
+  </si>
+  <si>
+    <t>0.9360</t>
   </si>
 </sst>
 </file>
@@ -772,28 +1180,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F81F446-6DC3-46CC-8BCE-CAAA015CE594}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +1242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -845,7 +1253,7 @@
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -853,7 +1261,7 @@
       <c r="F3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -891,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -929,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -967,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -1005,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -1043,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -1081,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -1119,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -1157,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1195,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -1233,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -1271,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -1309,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -1347,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -1385,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -1423,7 +1831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -1461,24 +1869,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="6">
+        <v>24589000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="6">
+        <v>152</v>
+      </c>
+      <c r="H22" s="6">
+        <v>7328</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
@@ -1492,17 +1914,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="6">
+        <v>13543000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="6">
+        <v>83</v>
+      </c>
+      <c r="H23" s="6">
+        <v>6715</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
@@ -1516,17 +1952,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="6">
+        <v>19943000</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="6">
+        <v>123</v>
+      </c>
+      <c r="H24" s="6">
+        <v>7193</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
@@ -1540,17 +1990,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="6">
+        <v>27269000</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6">
+        <v>169</v>
+      </c>
+      <c r="H25" s="6">
+        <v>7708</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
@@ -1564,17 +2028,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6">
+        <v>24852000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="6">
+        <v>155</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7349</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
@@ -1588,17 +2066,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="6">
+        <v>22922000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="6">
+        <v>142</v>
+      </c>
+      <c r="H27" s="6">
+        <v>7056</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
@@ -1612,17 +2104,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="6">
+        <v>27532000</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="6">
+        <v>169</v>
+      </c>
+      <c r="H28" s="6">
+        <v>7479</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="J28" s="6">
         <v>6</v>
       </c>
@@ -1636,17 +2142,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="6">
+        <v>21556000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="6">
+        <v>131</v>
+      </c>
+      <c r="H29" s="6">
+        <v>6790</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
@@ -1660,22 +2180,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="J30" s="6"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="3">
+        <v>21206000</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="3">
+        <v>131</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7307</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
@@ -1689,17 +2223,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>26</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="6">
+        <v>20111000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="6">
+        <v>125</v>
+      </c>
+      <c r="H32" s="6">
+        <v>7305</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="J32" s="6">
         <v>4</v>
       </c>
@@ -1713,17 +2261,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="6">
+        <v>23702000</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="6">
+        <v>147</v>
+      </c>
+      <c r="H33" s="6">
+        <v>7326</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
@@ -1737,17 +2299,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>28</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="6">
+        <v>26866000</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="6">
+        <v>167</v>
+      </c>
+      <c r="H34" s="6">
+        <v>7641</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="J34" s="6">
         <v>4</v>
       </c>
@@ -1761,17 +2337,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>29</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="6">
+        <v>20602000</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="6">
+        <v>128</v>
+      </c>
+      <c r="H35" s="6">
+        <v>7357</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="J35" s="6">
         <v>4</v>
       </c>
@@ -1785,17 +2375,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>30</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="6">
+        <v>28468000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="6">
+        <v>176</v>
+      </c>
+      <c r="H36" s="6">
+        <v>7938</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
@@ -1809,17 +2413,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="6">
+        <v>24884000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="6">
+        <v>155</v>
+      </c>
+      <c r="H37" s="6">
+        <v>7346</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
@@ -1833,17 +2451,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="6">
+        <v>17816000</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="6">
+        <v>109</v>
+      </c>
+      <c r="H38" s="6">
+        <v>7113</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
@@ -1857,26 +2489,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="6">
+        <v>23601000</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="6">
+        <v>142</v>
+      </c>
+      <c r="H40" s="6">
+        <v>6703</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J40" s="6">
         <v>2</v>
       </c>
@@ -1890,17 +2539,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="6">
+        <v>124</v>
+      </c>
+      <c r="H41" s="6">
+        <v>6928</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
@@ -1914,17 +2577,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="6">
+        <v>19905000</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="6">
+        <v>123</v>
+      </c>
+      <c r="H42" s="6">
+        <v>6384</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
@@ -1938,17 +2615,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="6">
+        <v>15231000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="6">
+        <v>91</v>
+      </c>
+      <c r="H43" s="6">
+        <v>6597</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
@@ -1962,17 +2653,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="6">
+        <v>20614000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="6">
+        <v>127</v>
+      </c>
+      <c r="H44" s="6">
+        <v>6978</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
@@ -1986,17 +2691,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="6">
+        <v>19728000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="6">
+        <v>124</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6587</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
@@ -2010,17 +2729,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="6">
+        <v>14679000</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="6">
+        <v>89</v>
+      </c>
+      <c r="H46" s="6">
+        <v>6414</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="J46" s="6">
         <v>2</v>
       </c>
@@ -2034,17 +2767,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="6">
+        <v>11067000</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="6">
+        <v>65</v>
+      </c>
+      <c r="H47" s="6">
+        <v>6184</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="J47" s="6">
         <v>2</v>
       </c>
@@ -2058,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="E48" s="7"/>
       <c r="F48" s="6"/>
@@ -2067,7 +2814,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -2076,7 +2823,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>1</v>
       </c>
@@ -2108,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -2137,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>3</v>
       </c>
@@ -2166,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <v>4</v>
       </c>
@@ -2195,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>5</v>
       </c>
@@ -2224,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>6</v>
       </c>
@@ -2253,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>7</v>
       </c>
@@ -2282,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>8</v>
       </c>
@@ -2311,10 +3058,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>9</v>
       </c>
@@ -2343,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>10</v>
       </c>
@@ -2372,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>11</v>
       </c>
@@ -2401,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>12</v>
       </c>
@@ -2430,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>13</v>
       </c>
@@ -2459,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <v>14</v>
       </c>
@@ -2488,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>15</v>
       </c>
@@ -2517,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>16</v>
       </c>
@@ -2546,19 +3293,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="7"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>17</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7"/>
-      <c r="I68" s="3"/>
+      <c r="E68">
+        <v>15200000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="7">
+        <v>152</v>
+      </c>
+      <c r="H68">
+        <v>6920</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="K68" t="s">
         <v>14</v>
       </c>
@@ -2569,13 +3325,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>18</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="7"/>
-      <c r="I69" s="3"/>
+      <c r="E69">
+        <v>8300000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="7">
+        <v>83</v>
+      </c>
+      <c r="H69">
+        <v>6589</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="K69" t="s">
         <v>14</v>
       </c>
@@ -2586,13 +3354,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>19</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
-      <c r="I70" s="3"/>
+      <c r="E70">
+        <v>12300000</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="7">
+        <v>123</v>
+      </c>
+      <c r="H70">
+        <v>6815</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="K70" t="s">
         <v>14</v>
       </c>
@@ -2603,13 +3383,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>20</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7"/>
-      <c r="I71" s="3"/>
+      <c r="E71">
+        <v>16900000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="7">
+        <v>169</v>
+      </c>
+      <c r="H71">
+        <v>7165</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="K71" t="s">
         <v>14</v>
       </c>
@@ -2620,13 +3412,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>21</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="7"/>
-      <c r="I72" s="3"/>
+      <c r="E72">
+        <v>15500000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="7">
+        <v>155</v>
+      </c>
+      <c r="H72">
+        <v>6797</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="K72" t="s">
         <v>14</v>
       </c>
@@ -2637,13 +3441,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>22</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="I73" s="3"/>
+      <c r="E73">
+        <v>14200000</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="7">
+        <v>142</v>
+      </c>
+      <c r="H73">
+        <v>6736</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="K73" t="s">
         <v>14</v>
       </c>
@@ -2654,13 +3470,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
-      <c r="I74" s="3"/>
+      <c r="E74">
+        <v>16900000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="7">
+        <v>169</v>
+      </c>
+      <c r="H74">
+        <v>6914</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
@@ -2671,13 +3499,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <v>24</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
-      <c r="I75" s="3"/>
+      <c r="E75">
+        <v>13100000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="7">
+        <v>131</v>
+      </c>
+      <c r="H75">
+        <v>6623</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="K75" t="s">
         <v>14</v>
       </c>
@@ -2688,20 +3528,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="F76" s="3"/>
       <c r="G76" s="7"/>
       <c r="I76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="5">
         <v>25</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="3"/>
+      <c r="E77">
+        <v>13100000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="7">
+        <v>131</v>
+      </c>
+      <c r="H77">
+        <v>6781</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="K77" t="s">
         <v>14</v>
       </c>
@@ -2712,14 +3564,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="5">
         <v>26</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="7"/>
-      <c r="I78" s="3"/>
+      <c r="E78">
+        <v>12500000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" s="7">
+        <v>125</v>
+      </c>
+      <c r="H78">
+        <v>6820</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="K78" t="s">
         <v>14</v>
       </c>
@@ -2730,14 +3594,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="5">
         <v>27</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="7"/>
-      <c r="I79" s="3"/>
+      <c r="E79">
+        <v>14700000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" s="7">
+        <v>147</v>
+      </c>
+      <c r="H79">
+        <v>6961</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K79" t="s">
         <v>14</v>
       </c>
@@ -2748,14 +3624,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="5">
         <v>28</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
-      <c r="I80" s="3"/>
+      <c r="E80">
+        <v>16700000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="7">
+        <v>167</v>
+      </c>
+      <c r="H80">
+        <v>6951</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="K80" t="s">
         <v>14</v>
       </c>
@@ -2766,14 +3654,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="5">
         <v>29</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="7"/>
-      <c r="I81" s="3"/>
+      <c r="E81">
+        <v>12800000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="7">
+        <v>128</v>
+      </c>
+      <c r="H81">
+        <v>6800</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="K81" t="s">
         <v>14</v>
       </c>
@@ -2784,14 +3684,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="5">
         <v>30</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="7"/>
-      <c r="I82" s="3"/>
+      <c r="E82">
+        <v>17600000</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="7">
+        <v>176</v>
+      </c>
+      <c r="H82">
+        <v>7082</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="K82" t="s">
         <v>14</v>
       </c>
@@ -2802,14 +3714,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="5">
         <v>31</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="7"/>
-      <c r="I83" s="3"/>
+      <c r="E83">
+        <v>15500000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" s="7">
+        <v>155</v>
+      </c>
+      <c r="H83">
+        <v>6859</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="K83" t="s">
         <v>14</v>
       </c>
@@ -2820,14 +3744,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="5">
         <v>32</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="7"/>
-      <c r="I84" s="3"/>
+      <c r="E84">
+        <v>10900000</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="7">
+        <v>109</v>
+      </c>
+      <c r="H84">
+        <v>6622</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="K84" t="s">
         <v>14</v>
       </c>
@@ -2838,21 +3774,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="D85" s="5"/>
       <c r="F85" s="3"/>
       <c r="G85" s="7"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="5">
         <v>33</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="7"/>
-      <c r="I86" s="3"/>
+      <c r="E86">
+        <v>14200000</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="7">
+        <v>142</v>
+      </c>
+      <c r="H86">
+        <v>6873</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="K86" t="s">
         <v>14</v>
       </c>
@@ -2863,14 +3811,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="5">
         <v>34</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="7"/>
-      <c r="I87" s="3"/>
+      <c r="E87">
+        <v>12400000</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="7">
+        <v>124</v>
+      </c>
+      <c r="H87">
+        <v>7075</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="K87" t="s">
         <v>14</v>
       </c>
@@ -2881,14 +3841,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="5">
         <v>35</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="7"/>
-      <c r="I88" s="3"/>
+      <c r="E88">
+        <v>12300000</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G88" s="7">
+        <v>123</v>
+      </c>
+      <c r="H88">
+        <v>6855</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="K88" t="s">
         <v>14</v>
       </c>
@@ -2899,14 +3871,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="5">
         <v>36</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="7"/>
-      <c r="I89" s="3"/>
+      <c r="E89">
+        <v>9100000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89" s="7">
+        <v>91</v>
+      </c>
+      <c r="H89">
+        <v>6907</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="K89" t="s">
         <v>14</v>
       </c>
@@ -2917,14 +3901,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="5">
         <v>37</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="7"/>
-      <c r="I90" s="3"/>
+      <c r="E90">
+        <v>12700000</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G90" s="7">
+        <v>127</v>
+      </c>
+      <c r="H90">
+        <v>6906</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K90" t="s">
         <v>14</v>
       </c>
@@ -2935,14 +3931,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="5">
         <v>38</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="7"/>
-      <c r="I91" s="3"/>
+      <c r="E91">
+        <v>12400000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="7">
+        <v>124</v>
+      </c>
+      <c r="H91">
+        <v>6769</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="K91" t="s">
         <v>14</v>
       </c>
@@ -2953,14 +3961,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="5">
         <v>39</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="7"/>
-      <c r="I92" s="3"/>
+      <c r="E92">
+        <v>8900000</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G92" s="7">
+        <v>89</v>
+      </c>
+      <c r="H92">
+        <v>6686</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="K92" t="s">
         <v>14</v>
       </c>
@@ -2971,14 +3991,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="5">
         <v>40</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="7"/>
-      <c r="I93" s="3"/>
+      <c r="E93">
+        <v>6500000</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" s="7">
+        <v>65</v>
+      </c>
+      <c r="H93">
+        <v>6881</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="K93" t="s">
         <v>14</v>
       </c>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA6F76-CC62-4AD8-B01B-96B8BFFFEDB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA9889-FCE7-4A0A-A4E4-6F6349A738D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="110">
   <si>
     <t>1st node to die</t>
   </si>
@@ -82,6 +82,285 @@
   </si>
   <si>
     <t>MPC vs LEACH</t>
+  </si>
+  <si>
+    <t>0.6789</t>
+  </si>
+  <si>
+    <t>0.6217</t>
+  </si>
+  <si>
+    <t>3.4943</t>
+  </si>
+  <si>
+    <t>3766/9827</t>
+  </si>
+  <si>
+    <t>2.3722</t>
+  </si>
+  <si>
+    <t>5345/7562</t>
+  </si>
+  <si>
+    <t>0.7102</t>
+  </si>
+  <si>
+    <t>0.7103</t>
+  </si>
+  <si>
+    <t>0.6356</t>
+  </si>
+  <si>
+    <t>3.6043</t>
+  </si>
+  <si>
+    <t>4217/10025</t>
+  </si>
+  <si>
+    <t>2.5597</t>
+  </si>
+  <si>
+    <t>5074/7705</t>
+  </si>
+  <si>
+    <t>0.6840</t>
+  </si>
+  <si>
+    <t>0.6153</t>
+  </si>
+  <si>
+    <t>3.1613</t>
+  </si>
+  <si>
+    <t>4165/10298</t>
+  </si>
+  <si>
+    <t>2.1622</t>
+  </si>
+  <si>
+    <t>5581/7563</t>
+  </si>
+  <si>
+    <t>0.7336</t>
+  </si>
+  <si>
+    <t>0.6278</t>
+  </si>
+  <si>
+    <t>3.8825</t>
+  </si>
+  <si>
+    <t>5188/10197</t>
+  </si>
+  <si>
+    <t>2.8483</t>
+  </si>
+  <si>
+    <t>5331/7693</t>
+  </si>
+  <si>
+    <t>0.7018</t>
+  </si>
+  <si>
+    <t>0.6189</t>
+  </si>
+  <si>
+    <t>3.3379</t>
+  </si>
+  <si>
+    <t>4659/10023</t>
+  </si>
+  <si>
+    <t>2.3424</t>
+  </si>
+  <si>
+    <t>0.7057</t>
+  </si>
+  <si>
+    <t>0.6223</t>
+  </si>
+  <si>
+    <t>3.5719</t>
+  </si>
+  <si>
+    <t>4411/10598</t>
+  </si>
+  <si>
+    <t>2.5207</t>
+  </si>
+  <si>
+    <t>5042/7628</t>
+  </si>
+  <si>
+    <t>0.6258</t>
+  </si>
+  <si>
+    <t>3.3141</t>
+  </si>
+  <si>
+    <t>4567/11073</t>
+  </si>
+  <si>
+    <t>2.3539</t>
+  </si>
+  <si>
+    <t>5605/7829</t>
+  </si>
+  <si>
+    <t>0.7211</t>
+  </si>
+  <si>
+    <t>0.6257</t>
+  </si>
+  <si>
+    <t>3.7455</t>
+  </si>
+  <si>
+    <t>3328/10592</t>
+  </si>
+  <si>
+    <t>2.7010</t>
+  </si>
+  <si>
+    <t>0.7084</t>
+  </si>
+  <si>
+    <t>0.6281</t>
+  </si>
+  <si>
+    <t>3.0315</t>
+  </si>
+  <si>
+    <t>3724/9780</t>
+  </si>
+  <si>
+    <t>2.1476</t>
+  </si>
+  <si>
+    <t>5506/7657</t>
+  </si>
+  <si>
+    <t>0.6998</t>
+  </si>
+  <si>
+    <t>0.6211</t>
+  </si>
+  <si>
+    <t>3.7498</t>
+  </si>
+  <si>
+    <t>4040/10886</t>
+  </si>
+  <si>
+    <t>2.6240</t>
+  </si>
+  <si>
+    <t>5490/7683</t>
+  </si>
+  <si>
+    <t>0.7519</t>
+  </si>
+  <si>
+    <t>0.6271</t>
+  </si>
+  <si>
+    <t>3.7563</t>
+  </si>
+  <si>
+    <t>5307/7542</t>
+  </si>
+  <si>
+    <t>2.8243</t>
+  </si>
+  <si>
+    <t>0.7160</t>
+  </si>
+  <si>
+    <t>0.6244</t>
+  </si>
+  <si>
+    <t>3.3105</t>
+  </si>
+  <si>
+    <t>3437/10169</t>
+  </si>
+  <si>
+    <t>2.3701</t>
+  </si>
+  <si>
+    <t>5278/7773</t>
+  </si>
+  <si>
+    <t>0.7149</t>
+  </si>
+  <si>
+    <t>0.6212</t>
+  </si>
+  <si>
+    <t>3.1728</t>
+  </si>
+  <si>
+    <t>3801/9825</t>
+  </si>
+  <si>
+    <t>2.2682</t>
+  </si>
+  <si>
+    <t>5121/7663</t>
+  </si>
+  <si>
+    <t>0.7034</t>
+  </si>
+  <si>
+    <t>0.6213</t>
+  </si>
+  <si>
+    <t>2.6356</t>
+  </si>
+  <si>
+    <t>3645/9779</t>
+  </si>
+  <si>
+    <t>1.8539</t>
+  </si>
+  <si>
+    <t>4710/7671</t>
+  </si>
+  <si>
+    <t>0.7305</t>
+  </si>
+  <si>
+    <t>0.6233</t>
+  </si>
+  <si>
+    <t>3.4924</t>
+  </si>
+  <si>
+    <t>2.5511</t>
+  </si>
+  <si>
+    <t>5294/7488</t>
+  </si>
+  <si>
+    <t>0.7170</t>
+  </si>
+  <si>
+    <t>0.6241</t>
+  </si>
+  <si>
+    <t>3.2280</t>
+  </si>
+  <si>
+    <t>4275/10077</t>
+  </si>
+  <si>
+    <t>4777/9981</t>
+  </si>
+  <si>
+    <t>2.3144</t>
+  </si>
+  <si>
+    <t>5506/7510</t>
   </si>
 </sst>
 </file>
@@ -487,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F81F446-6DC3-46CC-8BCE-CAAA015CE594}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,13 +851,27 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25749000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7543</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="7">
         <v>10</v>
       </c>
@@ -596,13 +889,27 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>26766000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7">
+        <v>170</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7569</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" s="7">
         <v>10</v>
       </c>
@@ -620,13 +927,27 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>24189000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7">
+        <v>149</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7803</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J6" s="6">
         <v>10</v>
       </c>
@@ -644,13 +965,27 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7">
+        <v>31513000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6">
+        <v>198</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8173</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="J7" s="6">
         <v>10</v>
       </c>
@@ -668,13 +1003,27 @@
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6">
+        <v>26312000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6">
+        <v>163</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7980</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="J8" s="6">
         <v>10</v>
       </c>
@@ -692,13 +1041,27 @@
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6">
+        <v>27315000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6">
+        <v>170</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7775</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="6">
         <v>10</v>
       </c>
@@ -716,13 +1079,27 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6">
+        <v>26503000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="6">
+        <v>166</v>
+      </c>
+      <c r="H10" s="6">
+        <v>8136</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="6">
         <v>10</v>
       </c>
@@ -740,13 +1117,27 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="7">
+        <v>30203000</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="6">
+        <v>189</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8218</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="J11" s="8">
         <v>10</v>
       </c>
@@ -764,12 +1155,27 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>23063000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6">
+        <v>145</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7786</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" s="6">
         <v>8</v>
       </c>
@@ -787,13 +1193,27 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7">
+        <v>29016000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="6">
+        <v>180</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7872</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
@@ -811,13 +1231,27 @@
       <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7">
+        <v>29655000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="6">
+        <v>186</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7944</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="J15" s="6">
         <v>8</v>
       </c>
@@ -835,12 +1269,27 @@
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>25818000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7">
+        <v>161</v>
+      </c>
+      <c r="H16" s="6">
+        <v>7906</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="J16" s="6">
         <v>8</v>
       </c>
@@ -858,12 +1307,27 @@
       <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17">
+        <v>24282000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7">
+        <v>151</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7797</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="J17" s="6">
         <v>8</v>
       </c>
@@ -881,12 +1345,27 @@
       <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>20292000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="6">
+        <v>126</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7872</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="J18" s="6">
         <v>8</v>
       </c>
@@ -904,12 +1383,27 @@
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19">
+        <v>27091000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7">
+        <v>169</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7817</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="J19" s="6">
         <v>8</v>
       </c>
@@ -927,13 +1421,27 @@
       <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="6">
+        <v>24990000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7">
+        <v>156</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7853</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="J20" s="6">
         <v>8</v>
       </c>
@@ -1571,11 +2079,21 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="6"/>
+      <c r="E50" s="6">
+        <v>16000000</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="7">
+        <v>160</v>
+      </c>
+      <c r="H50" s="7">
+        <v>6738</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" t="s">
         <v>14</v>
@@ -1591,11 +2109,21 @@
       <c r="B51" s="5">
         <v>2</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="6"/>
+      <c r="E51" s="6">
+        <v>17000000</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="7">
+        <v>170</v>
+      </c>
+      <c r="H51" s="7">
+        <v>6654</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="K51" t="s">
         <v>14</v>
       </c>
@@ -1610,11 +2138,21 @@
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="6"/>
+      <c r="E52" s="7">
+        <v>14900000</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="7">
+        <v>149</v>
+      </c>
+      <c r="H52" s="7">
+        <v>6880</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="K52" t="s">
         <v>14</v>
       </c>
@@ -1629,11 +2167,21 @@
       <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="6"/>
+      <c r="E53" s="7">
+        <v>19800000</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="7">
+        <v>198</v>
+      </c>
+      <c r="H53" s="7">
+        <v>6948</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="K53" t="s">
         <v>14</v>
       </c>
@@ -1648,10 +2196,21 @@
       <c r="B54" s="4">
         <v>5</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="3"/>
+      <c r="E54">
+        <v>16300000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="7">
+        <v>163</v>
+      </c>
+      <c r="H54" s="7">
+        <v>6942</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K54" t="s">
         <v>14</v>
       </c>
@@ -1666,10 +2225,21 @@
       <c r="B55" s="4">
         <v>6</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="3"/>
+      <c r="E55">
+        <v>17000000</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="7">
+        <v>170</v>
+      </c>
+      <c r="H55" s="7">
+        <v>6748</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="K55" t="s">
         <v>14</v>
       </c>
@@ -1684,10 +2254,21 @@
       <c r="B56" s="4">
         <v>7</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="3"/>
+      <c r="E56">
+        <v>16600000</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="7">
+        <v>166</v>
+      </c>
+      <c r="H56" s="7">
+        <v>7036</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="K56" t="s">
         <v>14</v>
       </c>
@@ -1702,10 +2283,21 @@
       <c r="B57" s="4">
         <v>8</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="3"/>
+      <c r="E57">
+        <v>18900000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="7">
+        <v>189</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6994</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="K57" t="s">
         <v>14</v>
       </c>
@@ -1723,10 +2315,21 @@
       <c r="B59" s="4">
         <v>9</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="7"/>
-      <c r="I59" s="3"/>
+      <c r="E59" s="7">
+        <v>14500000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="7">
+        <v>145</v>
+      </c>
+      <c r="H59" s="7">
+        <v>6741</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K59" t="s">
         <v>14</v>
       </c>
@@ -1741,9 +2344,21 @@
       <c r="B60" s="4">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="3"/>
+      <c r="E60">
+        <v>18000000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="7">
+        <v>180</v>
+      </c>
+      <c r="H60">
+        <v>6857</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K60" t="s">
         <v>14</v>
       </c>
@@ -1758,9 +2373,21 @@
       <c r="B61" s="4">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
-      <c r="I61" s="3"/>
+      <c r="E61">
+        <v>18600000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="7">
+        <v>186</v>
+      </c>
+      <c r="H61">
+        <v>6593</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K61" t="s">
         <v>14</v>
       </c>
@@ -1775,9 +2402,21 @@
       <c r="B62" s="4">
         <v>12</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="7"/>
-      <c r="I62" s="3"/>
+      <c r="E62">
+        <v>16100000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="7">
+        <v>161</v>
+      </c>
+      <c r="H62">
+        <v>6786</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="K62" t="s">
         <v>14</v>
       </c>
@@ -1792,9 +2431,21 @@
       <c r="B63" s="4">
         <v>13</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
-      <c r="I63" s="3"/>
+      <c r="E63">
+        <v>15100000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="7">
+        <v>151</v>
+      </c>
+      <c r="H63">
+        <v>6657</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="K63" t="s">
         <v>14</v>
       </c>
@@ -1809,9 +2460,21 @@
       <c r="B64" s="4">
         <v>14</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="7"/>
-      <c r="I64" s="3"/>
+      <c r="E64">
+        <v>12600000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="7">
+        <v>126</v>
+      </c>
+      <c r="H64">
+        <v>6789</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="K64" t="s">
         <v>14</v>
       </c>
@@ -1826,9 +2489,21 @@
       <c r="B65" s="4">
         <v>15</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="7"/>
-      <c r="I65" s="3"/>
+      <c r="E65">
+        <v>16900000</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="7">
+        <v>169</v>
+      </c>
+      <c r="H65">
+        <v>6621</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="K65" t="s">
         <v>14</v>
       </c>
@@ -1843,9 +2518,21 @@
       <c r="B66" s="4">
         <v>16</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="I66" s="3"/>
+      <c r="E66">
+        <v>15600000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="7">
+        <v>156</v>
+      </c>
+      <c r="H66">
+        <v>6733</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K66" t="s">
         <v>14</v>
       </c>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA9889-FCE7-4A0A-A4E4-6F6349A738D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CD3CD-E85C-47B2-A9C6-3EDE166B690B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
   <si>
     <t>1st node to die</t>
   </si>
@@ -361,6 +361,144 @@
   </si>
   <si>
     <t>5506/7510</t>
+  </si>
+  <si>
+    <t>0.7029</t>
+  </si>
+  <si>
+    <t>3.9126</t>
+  </si>
+  <si>
+    <t>4035/9855</t>
+  </si>
+  <si>
+    <t>2.7503</t>
+  </si>
+  <si>
+    <t>4839/7838</t>
+  </si>
+  <si>
+    <t>0.6522</t>
+  </si>
+  <si>
+    <t>0.6171</t>
+  </si>
+  <si>
+    <t>3.2573</t>
+  </si>
+  <si>
+    <t>3896/9464</t>
+  </si>
+  <si>
+    <t>2.1245</t>
+  </si>
+  <si>
+    <t>5363/7500</t>
+  </si>
+  <si>
+    <t>0.7166</t>
+  </si>
+  <si>
+    <t>0.6240</t>
+  </si>
+  <si>
+    <t>3.1531</t>
+  </si>
+  <si>
+    <t>4417/9785</t>
+  </si>
+  <si>
+    <t>2.2595</t>
+  </si>
+  <si>
+    <t>5553/7663</t>
+  </si>
+  <si>
+    <t>0.7173</t>
+  </si>
+  <si>
+    <t>3.7139</t>
+  </si>
+  <si>
+    <t>5042/10827</t>
+  </si>
+  <si>
+    <t>2.6641</t>
+  </si>
+  <si>
+    <t>5042/7916</t>
+  </si>
+  <si>
+    <t>0.6639</t>
+  </si>
+  <si>
+    <t>0.6224</t>
+  </si>
+  <si>
+    <t>2.8975</t>
+  </si>
+  <si>
+    <t>3161/9964</t>
+  </si>
+  <si>
+    <t>1.9237</t>
+  </si>
+  <si>
+    <t>5022/7630</t>
+  </si>
+  <si>
+    <t>0.7210</t>
+  </si>
+  <si>
+    <t>0.6205</t>
+  </si>
+  <si>
+    <t>3.7342</t>
+  </si>
+  <si>
+    <t>3877/10499</t>
+  </si>
+  <si>
+    <t>2.6923</t>
+  </si>
+  <si>
+    <t>5367/7779</t>
+  </si>
+  <si>
+    <t>0.6993</t>
+  </si>
+  <si>
+    <t>0.6157</t>
+  </si>
+  <si>
+    <t>3.4463</t>
+  </si>
+  <si>
+    <t>3942/9886</t>
+  </si>
+  <si>
+    <t>5165/7654</t>
+  </si>
+  <si>
+    <t>0.6682</t>
+  </si>
+  <si>
+    <t>0.6194</t>
+  </si>
+  <si>
+    <t>3.5008</t>
+  </si>
+  <si>
+    <t>4212/9750</t>
+  </si>
+  <si>
+    <t>2.3391</t>
+  </si>
+  <si>
+    <t>4567/7556</t>
+  </si>
+  <si>
+    <t>2.4010</t>
   </si>
 </sst>
 </file>
@@ -766,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F81F446-6DC3-46CC-8BCE-CAAA015CE594}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="E54" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,13 +1604,27 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="6">
+        <v>30557000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6">
+        <v>190</v>
+      </c>
+      <c r="H22" s="6">
+        <v>7946</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
@@ -1490,13 +1642,27 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="6">
+        <v>23023000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="6">
+        <v>142</v>
+      </c>
+      <c r="H23" s="6">
+        <v>7302</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
@@ -1514,13 +1680,27 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="6">
+        <v>24696000</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="6">
+        <v>154</v>
+      </c>
+      <c r="H24" s="6">
+        <v>7936</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
@@ -1538,13 +1718,27 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="6">
+        <v>30262000</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="6">
+        <v>189</v>
+      </c>
+      <c r="H25" s="6">
+        <v>7082</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
@@ -1562,13 +1756,27 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="6">
+        <v>20741000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="6">
+        <v>129</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7391</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
@@ -1586,13 +1794,27 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="6">
+        <v>30311000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="6">
+        <v>188</v>
+      </c>
+      <c r="H27" s="6">
+        <v>8216</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
@@ -1610,13 +1832,27 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="6">
+        <v>26775000</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="6">
+        <v>165</v>
+      </c>
+      <c r="H28" s="6">
+        <v>7882</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="J28" s="6">
         <v>6</v>
       </c>
@@ -1634,13 +1870,27 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="6">
+        <v>24999000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="6">
+        <v>155</v>
+      </c>
+      <c r="H29" s="6">
+        <v>7312</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
@@ -2550,9 +2800,21 @@
       <c r="B68" s="4">
         <v>17</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7"/>
-      <c r="I68" s="3"/>
+      <c r="E68">
+        <v>19000000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="7">
+        <v>190</v>
+      </c>
+      <c r="H68">
+        <v>6913</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="K68" t="s">
         <v>14</v>
       </c>
@@ -2567,9 +2829,21 @@
       <c r="B69" s="4">
         <v>18</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="7"/>
-      <c r="I69" s="3"/>
+      <c r="E69">
+        <v>14200000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="7">
+        <v>142</v>
+      </c>
+      <c r="H69">
+        <v>6678</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="K69" t="s">
         <v>14</v>
       </c>
@@ -2584,9 +2858,21 @@
       <c r="B70" s="4">
         <v>19</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
-      <c r="I70" s="3"/>
+      <c r="E70">
+        <v>15400000</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="7">
+        <v>154</v>
+      </c>
+      <c r="H70">
+        <v>6803</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="K70" t="s">
         <v>14</v>
       </c>
@@ -2601,9 +2887,21 @@
       <c r="B71" s="4">
         <v>20</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7"/>
-      <c r="I71" s="3"/>
+      <c r="E71">
+        <v>18900000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="7">
+        <v>189</v>
+      </c>
+      <c r="H71">
+        <v>7082</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="K71" t="s">
         <v>14</v>
       </c>
@@ -2618,9 +2916,21 @@
       <c r="B72" s="4">
         <v>21</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="7"/>
-      <c r="I72" s="3"/>
+      <c r="E72">
+        <v>12900000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="7">
+        <v>129</v>
+      </c>
+      <c r="H72">
+        <v>6703</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="K72" t="s">
         <v>14</v>
       </c>
@@ -2635,9 +2945,21 @@
       <c r="B73" s="4">
         <v>22</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="I73" s="3"/>
+      <c r="E73">
+        <v>18800000</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" s="7">
+        <v>188</v>
+      </c>
+      <c r="H73">
+        <v>6977</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="K73" t="s">
         <v>14</v>
       </c>
@@ -2652,9 +2974,21 @@
       <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
-      <c r="I74" s="3"/>
+      <c r="E74" s="3">
+        <v>16500000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="7">
+        <v>165</v>
+      </c>
+      <c r="H74">
+        <v>6836</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
@@ -2669,9 +3003,21 @@
       <c r="B75" s="4">
         <v>24</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
-      <c r="I75" s="3"/>
+      <c r="E75">
+        <v>15500000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="7">
+        <v>155</v>
+      </c>
+      <c r="H75">
+        <v>6630</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="K75" t="s">
         <v>14</v>
       </c>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CD3CD-E85C-47B2-A9C6-3EDE166B690B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4282048-7E9C-4140-975C-738CA11D8E17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{E5EC2281-7733-4B6C-894F-C55F7AB8E94A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="249">
   <si>
     <t>1st node to die</t>
   </si>
@@ -499,6 +499,285 @@
   </si>
   <si>
     <t>2.4010</t>
+  </si>
+  <si>
+    <t>0.7293</t>
+  </si>
+  <si>
+    <t>0.6277</t>
+  </si>
+  <si>
+    <t>3.6732</t>
+  </si>
+  <si>
+    <t>4663/9939</t>
+  </si>
+  <si>
+    <t>2.6788</t>
+  </si>
+  <si>
+    <t>5457/7852</t>
+  </si>
+  <si>
+    <t>0.6565</t>
+  </si>
+  <si>
+    <t>0.6108</t>
+  </si>
+  <si>
+    <t>3.1824</t>
+  </si>
+  <si>
+    <t>3581/10300</t>
+  </si>
+  <si>
+    <t>2.0891</t>
+  </si>
+  <si>
+    <t>5310/7587</t>
+  </si>
+  <si>
+    <t>0.7038</t>
+  </si>
+  <si>
+    <t>0.6185</t>
+  </si>
+  <si>
+    <t>3.4593</t>
+  </si>
+  <si>
+    <t>4462/9736</t>
+  </si>
+  <si>
+    <t>2.4345</t>
+  </si>
+  <si>
+    <t>5116/7529</t>
+  </si>
+  <si>
+    <t>0.7255</t>
+  </si>
+  <si>
+    <t>0.6228</t>
+  </si>
+  <si>
+    <t>3.2961</t>
+  </si>
+  <si>
+    <t>4500/9792</t>
+  </si>
+  <si>
+    <t>2.3915</t>
+  </si>
+  <si>
+    <t>5361/7584</t>
+  </si>
+  <si>
+    <t>0.7064</t>
+  </si>
+  <si>
+    <t>0.6251</t>
+  </si>
+  <si>
+    <t>3.6863</t>
+  </si>
+  <si>
+    <t>4644/10206</t>
+  </si>
+  <si>
+    <t>2.6042</t>
+  </si>
+  <si>
+    <t>5108/7664</t>
+  </si>
+  <si>
+    <t>0.7205</t>
+  </si>
+  <si>
+    <t>3.8924</t>
+  </si>
+  <si>
+    <t>4288/10086</t>
+  </si>
+  <si>
+    <t>2.8043</t>
+  </si>
+  <si>
+    <t>5123/8033</t>
+  </si>
+  <si>
+    <t>0.7438</t>
+  </si>
+  <si>
+    <t>0.6343</t>
+  </si>
+  <si>
+    <t>3.2289</t>
+  </si>
+  <si>
+    <t>4780/10356</t>
+  </si>
+  <si>
+    <t>2.4017</t>
+  </si>
+  <si>
+    <t>5501/8124</t>
+  </si>
+  <si>
+    <t>0.7242</t>
+  </si>
+  <si>
+    <t>0.6266</t>
+  </si>
+  <si>
+    <t>3.8657</t>
+  </si>
+  <si>
+    <t>4866/10680</t>
+  </si>
+  <si>
+    <t>2.7995</t>
+  </si>
+  <si>
+    <t>5211/7845</t>
+  </si>
+  <si>
+    <t>0.5874</t>
+  </si>
+  <si>
+    <t>0.6139</t>
+  </si>
+  <si>
+    <t>2.3189</t>
+  </si>
+  <si>
+    <t>3319/9364</t>
+  </si>
+  <si>
+    <t>1.3622</t>
+  </si>
+  <si>
+    <t>5229/7360</t>
+  </si>
+  <si>
+    <t>0.5715</t>
+  </si>
+  <si>
+    <t>3.1289</t>
+  </si>
+  <si>
+    <t>3445/9589</t>
+  </si>
+  <si>
+    <t>1.7882</t>
+  </si>
+  <si>
+    <t>5550/7783</t>
+  </si>
+  <si>
+    <t>0.5768</t>
+  </si>
+  <si>
+    <t>0.6299</t>
+  </si>
+  <si>
+    <t>3.6063</t>
+  </si>
+  <si>
+    <t>2608/9393</t>
+  </si>
+  <si>
+    <t>2.0801</t>
+  </si>
+  <si>
+    <t>5491/7843</t>
+  </si>
+  <si>
+    <t>0.5668</t>
+  </si>
+  <si>
+    <t>0.6165</t>
+  </si>
+  <si>
+    <t>2.6116</t>
+  </si>
+  <si>
+    <t>2754/9417</t>
+  </si>
+  <si>
+    <t>1.4803</t>
+  </si>
+  <si>
+    <t>5748/7718</t>
+  </si>
+  <si>
+    <t>0.5713</t>
+  </si>
+  <si>
+    <t>0.6274</t>
+  </si>
+  <si>
+    <t>2.8673</t>
+  </si>
+  <si>
+    <t>3043/9497</t>
+  </si>
+  <si>
+    <t>1.6380</t>
+  </si>
+  <si>
+    <t>5464/7481</t>
+  </si>
+  <si>
+    <t>0.5926</t>
+  </si>
+  <si>
+    <t>2.8507</t>
+  </si>
+  <si>
+    <t>3649/9795</t>
+  </si>
+  <si>
+    <t>1.6894</t>
+  </si>
+  <si>
+    <t>5146/7628</t>
+  </si>
+  <si>
+    <t>0.5585</t>
+  </si>
+  <si>
+    <t>0.6193</t>
+  </si>
+  <si>
+    <t>3.3063</t>
+  </si>
+  <si>
+    <t>3463/9554</t>
+  </si>
+  <si>
+    <t>1.8466</t>
+  </si>
+  <si>
+    <t>5017/7776</t>
+  </si>
+  <si>
+    <t>0.5752</t>
+  </si>
+  <si>
+    <t>0.6252</t>
+  </si>
+  <si>
+    <t>3.1882</t>
+  </si>
+  <si>
+    <t>2538/9548</t>
+  </si>
+  <si>
+    <t>1.8339</t>
+  </si>
+  <si>
+    <t>5310/7645</t>
   </si>
 </sst>
 </file>
@@ -904,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F81F446-6DC3-46CC-8BCE-CAAA015CE594}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E54" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,13 +2192,27 @@
       <c r="B31" s="5">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="3">
+        <v>29132000</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="3">
+        <v>183</v>
+      </c>
+      <c r="H31" s="3">
+        <v>8001</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
@@ -1937,13 +2230,27 @@
       <c r="B32" s="5">
         <v>26</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="6">
+        <v>23040000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="6">
+        <v>141</v>
+      </c>
+      <c r="H32" s="6">
+        <v>7440</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="J32" s="6">
         <v>4</v>
       </c>
@@ -1961,13 +2268,27 @@
       <c r="B33" s="5">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="6">
+        <v>26329000</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="6">
+        <v>163</v>
+      </c>
+      <c r="H33" s="6">
+        <v>7708</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
@@ -1985,13 +2306,27 @@
       <c r="B34" s="5">
         <v>28</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="6">
+        <v>25826000</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="6">
+        <v>161</v>
+      </c>
+      <c r="H34" s="6">
+        <v>7919</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="J34" s="6">
         <v>4</v>
       </c>
@@ -2009,13 +2344,27 @@
       <c r="B35" s="5">
         <v>29</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="6">
+        <v>28972000</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="6">
+        <v>181</v>
+      </c>
+      <c r="H35" s="6">
+        <v>7937</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="J35" s="6">
         <v>4</v>
       </c>
@@ -2033,13 +2382,27 @@
       <c r="B36" s="5">
         <v>30</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="6">
+        <v>31370000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="6">
+        <v>196</v>
+      </c>
+      <c r="H36" s="6">
+        <v>8155</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
@@ -2057,13 +2420,27 @@
       <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="6">
+        <v>27254000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="6">
+        <v>173</v>
+      </c>
+      <c r="H37" s="6">
+        <v>8492</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
@@ -2081,13 +2458,27 @@
       <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="6">
+        <v>31137000</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="6">
+        <v>195</v>
+      </c>
+      <c r="H38" s="6">
+        <v>8134</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
@@ -2117,13 +2508,27 @@
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="6">
+        <v>14817000</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="6">
+        <v>91</v>
+      </c>
+      <c r="H40" s="6">
+        <v>6664</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J40" s="6">
         <v>2</v>
       </c>
@@ -2141,13 +2546,27 @@
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20114000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="6">
+        <v>125</v>
+      </c>
+      <c r="H41" s="6">
+        <v>6713</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
@@ -2165,13 +2584,27 @@
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="6">
+        <v>22876000</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="6">
+        <v>144</v>
+      </c>
+      <c r="H42" s="6">
+        <v>6653</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
@@ -2189,13 +2622,27 @@
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="6">
+        <v>16663000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="6">
+        <v>103</v>
+      </c>
+      <c r="H43" s="6">
+        <v>6697</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
@@ -2213,13 +2660,27 @@
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="6">
+        <v>17847000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="6">
+        <v>112</v>
+      </c>
+      <c r="H44" s="6">
+        <v>6485</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
@@ -2237,13 +2698,27 @@
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="6">
+        <v>18527000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="6">
+        <v>116</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6761</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
@@ -2261,13 +2736,27 @@
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="6">
+        <v>20375000</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="6">
+        <v>126</v>
+      </c>
+      <c r="H46" s="6">
+        <v>6486</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="J46" s="6">
         <v>2</v>
       </c>
@@ -2285,13 +2774,27 @@
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="6">
+        <v>19670000</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="6">
+        <v>123</v>
+      </c>
+      <c r="H47" s="6">
+        <v>6486</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="J47" s="6">
         <v>2</v>
       </c>
@@ -3039,9 +3542,21 @@
       <c r="B77" s="5">
         <v>25</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="3"/>
+      <c r="E77">
+        <v>18300000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="7">
+        <v>183</v>
+      </c>
+      <c r="H77">
+        <v>6830</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K77" t="s">
         <v>14</v>
       </c>
@@ -3057,9 +3572,21 @@
         <v>26</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="7"/>
-      <c r="I78" s="3"/>
+      <c r="E78">
+        <v>14100000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="7">
+        <v>141</v>
+      </c>
+      <c r="H78">
+        <v>6729</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="K78" t="s">
         <v>14</v>
       </c>
@@ -3075,9 +3602,21 @@
         <v>27</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="7"/>
-      <c r="I79" s="3"/>
+      <c r="E79">
+        <v>16300000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="7">
+        <v>163</v>
+      </c>
+      <c r="H79">
+        <v>6690</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="K79" t="s">
         <v>14</v>
       </c>
@@ -3093,9 +3632,21 @@
         <v>28</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
-      <c r="I80" s="3"/>
+      <c r="E80">
+        <v>16100000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" s="7">
+        <v>161</v>
+      </c>
+      <c r="H80">
+        <v>6728</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="K80" t="s">
         <v>14</v>
       </c>
@@ -3111,9 +3662,21 @@
         <v>29</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="7"/>
-      <c r="I81" s="3"/>
+      <c r="E81">
+        <v>18100000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="7">
+        <v>181</v>
+      </c>
+      <c r="H81">
+        <v>6939</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="K81" t="s">
         <v>14</v>
       </c>
@@ -3129,9 +3692,21 @@
         <v>30</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="7"/>
-      <c r="I82" s="3"/>
+      <c r="E82">
+        <v>19600000</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="7">
+        <v>196</v>
+      </c>
+      <c r="H82">
+        <v>6997</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="K82" t="s">
         <v>14</v>
       </c>
@@ -3147,9 +3722,21 @@
         <v>31</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="7"/>
-      <c r="I83" s="3"/>
+      <c r="E83">
+        <v>17300000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" s="7">
+        <v>173</v>
+      </c>
+      <c r="H83">
+        <v>7202</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="K83" t="s">
         <v>14</v>
       </c>
@@ -3165,9 +3752,21 @@
         <v>32</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="7"/>
-      <c r="I84" s="3"/>
+      <c r="E84">
+        <v>19500000</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="7">
+        <v>195</v>
+      </c>
+      <c r="H84">
+        <v>6964</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="K84" t="s">
         <v>14</v>
       </c>
@@ -3190,9 +3789,21 @@
         <v>33</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="7"/>
-      <c r="I86" s="3"/>
+      <c r="E86">
+        <v>9100000</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="7">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>6651</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="K86" t="s">
         <v>14</v>
       </c>
@@ -3208,9 +3819,21 @@
         <v>34</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="7"/>
-      <c r="I87" s="3"/>
+      <c r="E87">
+        <v>12500000</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="7">
+        <v>125</v>
+      </c>
+      <c r="H87">
+        <v>6976</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="K87" t="s">
         <v>14</v>
       </c>
@@ -3226,9 +3849,21 @@
         <v>35</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="7"/>
-      <c r="I88" s="3"/>
+      <c r="E88">
+        <v>14400000</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G88" s="7">
+        <v>144</v>
+      </c>
+      <c r="H88">
+        <v>6912</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="K88" t="s">
         <v>14</v>
       </c>
@@ -3244,9 +3879,21 @@
         <v>36</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="7"/>
-      <c r="I89" s="3"/>
+      <c r="E89">
+        <v>10300000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89" s="7">
+        <v>103</v>
+      </c>
+      <c r="H89">
+        <v>6925</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="K89" t="s">
         <v>14</v>
       </c>
@@ -3262,9 +3909,21 @@
         <v>37</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="7"/>
-      <c r="I90" s="3"/>
+      <c r="E90">
+        <v>11200000</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G90" s="7">
+        <v>112</v>
+      </c>
+      <c r="H90">
+        <v>6809</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K90" t="s">
         <v>14</v>
       </c>
@@ -3280,9 +3939,21 @@
         <v>38</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="7"/>
-      <c r="I91" s="3"/>
+      <c r="E91">
+        <v>11600000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G91" s="7">
+        <v>116</v>
+      </c>
+      <c r="H91">
+        <v>6845</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="K91" t="s">
         <v>14</v>
       </c>
@@ -3298,9 +3969,21 @@
         <v>39</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="7"/>
-      <c r="I92" s="3"/>
+      <c r="E92">
+        <v>12600000</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G92" s="7">
+        <v>126</v>
+      </c>
+      <c r="H92">
+        <v>6824</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="K92" t="s">
         <v>14</v>
       </c>
@@ -3316,9 +3999,21 @@
         <v>40</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="7"/>
-      <c r="I93" s="3"/>
+      <c r="E93">
+        <v>12300000</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" s="7">
+        <v>123</v>
+      </c>
+      <c r="H93">
+        <v>6700</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="K93" t="s">
         <v>14</v>
       </c>
